--- a/biology/Zoologie/Jean_Colin_(spéléologue)/Jean_Colin_(spéléologue).xlsx
+++ b/biology/Zoologie/Jean_Colin_(spéléologue)/Jean_Colin_(spéléologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Colin_(sp%C3%A9l%C3%A9ologue)</t>
+          <t>Jean_Colin_(spéléologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Colin (31 octobre 1909 à Lunéville - 11 juin 1971 à Choux) est un spéléologue français.
 Il est surtout connu pour son animation de l'exploration spéléologique dans le Haut-Jura pendant 21 ans, de 1950 à 1971.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Colin_(sp%C3%A9l%C3%A9ologue)</t>
+          <t>Jean_Colin_(spéléologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Colin est né le 31 octobre 1909 à Lunéville (Meurthe-et-Moselle) ; il est décédé en 1971.
 Il s'installe à Saint-Claude dans le Jura en 1948 pour raison professionnelle.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Colin_(sp%C3%A9l%C3%A9ologue)</t>
+          <t>Jean_Colin_(spéléologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Activités spéléologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine de la spéléologie il anime pendant 21 ans, de 1950 à 1971, l'activité spéléologique dans le département du Jura. Il est le rédacteur principal du bulletin L'Écho des cavernes.
 Il s'intéresse surtout à la biospéologie. Bien qu'autodidacte, il est considéré comme le spécialiste jurassien dans ce domaine par les biologistes professionnels des universités de Dijon, Lyon ou Genève avec lesquels il collaborait bénévolement.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean_Colin_(sp%C3%A9l%C3%A9ologue)</t>
+          <t>Jean_Colin_(spéléologue)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,14 +594,16 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste complète de ses écrits est parue dans Actes et communications du Comité départemental de spéléologie du Jura, 1972 (4), 17 p. On retiendra en particulier :
 Gravures magiques des grottes du Haut-Jura, 1957
 Essai de recensement de la faune cavernicoles du Haut-Jura, 1964
 « Les Chasseurs d'images spéléologiques (activités) », Spelunca 4e série no 4-1964, F.F.S., Paris, 1964, p. 50
 On y relève également que :
-En 1966, il crée le premier volume de l'Inventaire spéléologique de France, consacré au département du Jura, édité par le BRGM[1].
+En 1966, il crée le premier volume de l'Inventaire spéléologique de France, consacré au département du Jura, édité par le BRGM.
 Il rédige 25 poèmes spéléologiques, illustrés de dessins à la plume, publiés en 1975 dans un recueil posthume.</t>
         </is>
       </c>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jean_Colin_(sp%C3%A9l%C3%A9ologue)</t>
+          <t>Jean_Colin_(spéléologue)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Médaille de la jeunesse et des sports en 1957</t>
         </is>
